--- a/dut/coverage plan.xlsx
+++ b/dut/coverage plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\aruna\codekiran\APB_CODE\dut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A29812E-11C3-40CA-B401-658A86DD3751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCBA9D3-C88A-4EAE-867C-41A6B336271C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,20 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
   <si>
     <t>Bins</t>
   </si>
   <si>
-    <t>Ignor/Illigal bins</t>
-  </si>
-  <si>
     <t>Commnets</t>
   </si>
   <si>
-    <t>Corss Coverage</t>
-  </si>
-  <si>
     <t>psel</t>
   </si>
   <si>
@@ -124,6 +118,66 @@
   </si>
   <si>
     <t>256 bins, i.e    {1,2,3….256}</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t>PSELXPENABLE</t>
+  </si>
+  <si>
+    <t>psel,penable</t>
+  </si>
+  <si>
+    <t>c8</t>
+  </si>
+  <si>
+    <t>c9</t>
+  </si>
+  <si>
+    <t>c10</t>
+  </si>
+  <si>
+    <t>c11</t>
+  </si>
+  <si>
+    <t>c12</t>
+  </si>
+  <si>
+    <t>c13</t>
+  </si>
+  <si>
+    <t>c14</t>
+  </si>
+  <si>
+    <t>IGNORE</t>
+  </si>
+  <si>
+    <t>CROSS COVERAGE</t>
+  </si>
+  <si>
+    <t>{0=&gt;0,0=&gt;1,1=&gt;0,1=&gt;1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {[85:170],[170:255]};}</t>
+  </si>
+  <si>
+    <t>{[85:170],[170:255]};}</t>
+  </si>
+  <si>
+    <t>psel(0=&gt;1)&amp;&amp;penable(0=&gt;0)</t>
+  </si>
+  <si>
+    <t>SELXENXWRT</t>
+  </si>
+  <si>
+    <t>psel,penable,pwrite</t>
+  </si>
+  <si>
+    <t>psel(0=&gt;1)&amp;&amp;penable(0=&gt;0)&amp;&amp;pwrite(0=&gt;1)</t>
   </si>
 </sst>
 </file>
@@ -165,19 +219,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -216,16 +275,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{738B9C19-E3F9-4146-A954-CE10256CC803}" name="Table2" displayName="Table2" ref="A1:H8" insertRowShift="1" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="A1:H8" xr:uid="{738B9C19-E3F9-4146-A954-CE10256CC803}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{6DB57A61-B987-42AD-852D-8B41E954A316}" name="Se.no" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{C1EEA66A-348B-4E7F-B7B6-A6881CD44605}" name="Label" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{E2B10DDD-8AD2-48FC-AE17-5CD19822BD08}" name="Signal" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{59D40703-2F53-4439-A567-01B24B56CC75}" name="Coverpont Name" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{A27372CB-8894-47FF-A1C9-99B4C540FA1C}" name="Bins" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{330692E2-4366-49D4-90BC-AD147721F6EC}" name="Ignor/Illigal bins" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{9A36B865-C94A-4E59-BB86-72442E399634}" name="Corss Coverage" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{738B9C19-E3F9-4146-A954-CE10256CC803}" name="Table2" displayName="Table2" ref="A1:G17" insertRowShift="1" totalsRowShown="0" dataDxfId="7">
+  <autoFilter ref="A1:G17" xr:uid="{738B9C19-E3F9-4146-A954-CE10256CC803}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{6DB57A61-B987-42AD-852D-8B41E954A316}" name="Se.no" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{C1EEA66A-348B-4E7F-B7B6-A6881CD44605}" name="Label" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{E2B10DDD-8AD2-48FC-AE17-5CD19822BD08}" name="Signal" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{59D40703-2F53-4439-A567-01B24B56CC75}" name="Coverpont Name" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{A27372CB-8894-47FF-A1C9-99B4C540FA1C}" name="Bins" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{330692E2-4366-49D4-90BC-AD147721F6EC}" name="TYPE" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{1C5391F5-7054-43FE-BEBD-41A77B01D57A}" name="Commnets" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -495,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,175 +566,363 @@
     <col min="3" max="4" width="25.88671875" customWidth="1"/>
     <col min="5" max="5" width="24.77734375" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="28.109375" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
